--- a/KẾ HOẠCH CHI TIẾT.xlsx
+++ b/KẾ HOẠCH CHI TIẾT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\caro-game-one-player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A584157-B214-49D2-872C-4BED6456FD27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0A64B7-FDE4-4BA7-A5A7-BC8C55B44D8B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{AFE64996-C6F0-4364-80A5-09C90EDB035F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="4068" xr2:uid="{AFE64996-C6F0-4364-80A5-09C90EDB035F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>KẾ HOẠCH &amp; PHÂN CÔNG LÀM ĐỒ ÁN MÔN CẤU TRÚC DỮ LIỆU VÀ GIẢI THUẬT</t>
   </si>
@@ -77,12 +77,6 @@
     <t xml:space="preserve">Thêm các chức năng khác </t>
   </si>
   <si>
-    <t>Chuyển tất cả các button (ô) vào 2 danh sách đặc lồng nhau để xử lý như trên ma trận.</t>
-  </si>
-  <si>
-    <t>Tìm hiểu ngăn sếp , vận dụng tạo lưu vết (bổ sung sau)</t>
-  </si>
-  <si>
     <t>Tạo backgourd, tạo các khung sườn</t>
   </si>
   <si>
@@ -98,7 +92,7 @@
     <t>Ghi Chú</t>
   </si>
   <si>
-    <t>2/10/2018 Chỉnh sửa</t>
+    <t>Tìm hiểu ngăn sếp , vận dụng tạo lưu vết</t>
   </si>
 </sst>
 </file>
@@ -146,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -401,17 +395,6 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -425,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -444,7 +427,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -460,15 +442,11 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,72 +789,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C175DDD1-3669-4EDA-8396-74DDD837FA78}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="73.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" ht="58.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="28" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="29"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -892,90 +870,84 @@
       <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="19">
+        <v>43354</v>
+      </c>
+      <c r="E5" s="19">
+        <v>43355</v>
+      </c>
+      <c r="F5" s="19">
+        <v>43354</v>
+      </c>
+      <c r="G5" s="17">
+        <v>43355</v>
+      </c>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="20">
+        <v>43356</v>
+      </c>
+      <c r="E6" s="20">
+        <v>43360</v>
+      </c>
+      <c r="F6" s="20">
+        <v>43356</v>
+      </c>
+      <c r="G6" s="18">
+        <v>43360</v>
+      </c>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="20">
-        <v>43354</v>
-      </c>
-      <c r="E5" s="20">
-        <v>43355</v>
-      </c>
-      <c r="F5" s="20">
-        <v>43354</v>
-      </c>
-      <c r="G5" s="18">
-        <v>43355</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="21">
+      <c r="B7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="20">
         <v>43356</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E7" s="20">
         <v>43360</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F7" s="20">
         <v>43356</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G7" s="18">
         <v>43360</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="21">
-        <v>43356</v>
-      </c>
-      <c r="E7" s="21">
-        <v>43360</v>
-      </c>
-      <c r="F7" s="21">
-        <v>43356</v>
-      </c>
-      <c r="G7" s="19">
-        <v>43360</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -983,19 +955,21 @@
         <v>10</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>43371</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>43378</v>
       </c>
-      <c r="F8" s="21">
-        <v>43371</v>
-      </c>
-      <c r="G8" s="14"/>
+      <c r="F8" s="20">
+        <v>43383</v>
+      </c>
+      <c r="G8" s="18">
+        <v>43415</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -1003,75 +977,93 @@
       <c r="C9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>43365</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>43368</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="F9" s="20">
+        <v>43384</v>
+      </c>
+      <c r="G9" s="18">
+        <v>43388</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="22">
-        <v>43369</v>
-      </c>
-      <c r="E10" s="22">
-        <v>43375</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
+      <c r="C10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="20">
+        <v>43383</v>
+      </c>
+      <c r="E10" s="20">
+        <v>43387</v>
+      </c>
+      <c r="F10" s="20">
+        <v>43389</v>
+      </c>
+      <c r="G10" s="18">
+        <v>43414</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="21">
-        <v>43383</v>
-      </c>
-      <c r="E11" s="21">
-        <v>43387</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
+      <c r="D11" s="20">
+        <v>43391</v>
+      </c>
+      <c r="E11" s="20">
+        <v>43393</v>
+      </c>
+      <c r="F11" s="20">
+        <v>43391</v>
+      </c>
+      <c r="G11" s="18">
+        <v>43405</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="C12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="21">
-        <v>43391</v>
-      </c>
-      <c r="E12" s="21">
+      <c r="D12" s="20">
         <v>43393</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
+      <c r="E12" s="20">
+        <v>43403</v>
+      </c>
+      <c r="F12" s="20">
+        <v>43401</v>
+      </c>
+      <c r="G12" s="18">
+        <v>43415</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>10</v>
@@ -1079,51 +1071,35 @@
       <c r="C13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="21">
-        <v>43393</v>
-      </c>
-      <c r="E13" s="21">
-        <v>43403</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
+      <c r="D13" s="20">
+        <v>43398</v>
+      </c>
+      <c r="E13" s="20">
+        <v>43404</v>
+      </c>
+      <c r="F13" s="20">
+        <v>43388</v>
+      </c>
+      <c r="G13" s="18">
+        <v>43420</v>
+      </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="21">
-        <v>43398</v>
-      </c>
-      <c r="E14" s="21">
-        <v>43404</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23">
         <v>43405</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E14" s="23">
         <v>43409</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="15"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/KẾ HOẠCH CHI TIẾT.xlsx
+++ b/KẾ HOẠCH CHI TIẾT.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\caro-game-one-player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0A64B7-FDE4-4BA7-A5A7-BC8C55B44D8B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE5F11E-C391-4620-A374-3787F108B2FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="4068" xr2:uid="{AFE64996-C6F0-4364-80A5-09C90EDB035F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -792,7 +792,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/KẾ HOẠCH CHI TIẾT.xlsx
+++ b/KẾ HOẠCH CHI TIẾT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\caro-game-one-player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE5F11E-C391-4620-A374-3787F108B2FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3E0619-20B0-4FB5-B498-DFB644225210}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="4068" xr2:uid="{AFE64996-C6F0-4364-80A5-09C90EDB035F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4065" xr2:uid="{AFE64996-C6F0-4364-80A5-09C90EDB035F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>Xử lý đổi người</t>
   </si>
   <si>
-    <t>Kiểm tra hàng 5 (dọc, ngang, đường chéo chính, đường chéo phụ).</t>
-  </si>
-  <si>
     <t>Xác định trạng thái thắng, kiểm tra người thắng.</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>Tìm hiểu ngăn sếp , vận dụng tạo lưu vết</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra hàng 5 </t>
   </si>
 </sst>
 </file>
@@ -413,13 +413,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -428,7 +421,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -465,14 +457,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -791,56 +801,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C175DDD1-3669-4EDA-8396-74DDD837FA78}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-    </row>
-    <row r="2" spans="1:9" ht="58.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="30" t="s">
         <v>6</v>
       </c>
@@ -849,257 +859,257 @@
         <v>7</v>
       </c>
       <c r="G3" s="32"/>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13">
+        <v>43354</v>
+      </c>
+      <c r="E5" s="13">
+        <v>43355</v>
+      </c>
+      <c r="F5" s="13">
+        <v>43354</v>
+      </c>
+      <c r="G5" s="11">
+        <v>43355</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14">
+        <v>43356</v>
+      </c>
+      <c r="E6" s="14">
+        <v>43360</v>
+      </c>
+      <c r="F6" s="14">
+        <v>43356</v>
+      </c>
+      <c r="G6" s="12">
+        <v>43360</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14">
+        <v>43356</v>
+      </c>
+      <c r="E7" s="14">
+        <v>43360</v>
+      </c>
+      <c r="F7" s="14">
+        <v>43356</v>
+      </c>
+      <c r="G7" s="12">
+        <v>43360</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="14">
+        <v>43371</v>
+      </c>
+      <c r="E8" s="14">
+        <v>43378</v>
+      </c>
+      <c r="F8" s="14">
+        <v>43383</v>
+      </c>
+      <c r="G8" s="12">
+        <v>43415</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14">
+        <v>43365</v>
+      </c>
+      <c r="E9" s="14">
+        <v>43368</v>
+      </c>
+      <c r="F9" s="14">
+        <v>43384</v>
+      </c>
+      <c r="G9" s="12">
+        <v>43388</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14">
+        <v>43383</v>
+      </c>
+      <c r="E10" s="14">
+        <v>43387</v>
+      </c>
+      <c r="F10" s="14">
+        <v>43389</v>
+      </c>
+      <c r="G10" s="12">
+        <v>43414</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14">
+        <v>43391</v>
+      </c>
+      <c r="E11" s="14">
+        <v>43393</v>
+      </c>
+      <c r="F11" s="14">
+        <v>43391</v>
+      </c>
+      <c r="G11" s="12">
+        <v>43405</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26"/>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="26"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="19">
-        <v>43354</v>
-      </c>
-      <c r="E5" s="19">
-        <v>43355</v>
-      </c>
-      <c r="F5" s="19">
-        <v>43354</v>
-      </c>
-      <c r="G5" s="17">
-        <v>43355</v>
-      </c>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="20">
-        <v>43356</v>
-      </c>
-      <c r="E6" s="20">
-        <v>43360</v>
-      </c>
-      <c r="F6" s="20">
-        <v>43356</v>
-      </c>
-      <c r="G6" s="18">
-        <v>43360</v>
-      </c>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="14">
+        <v>43393</v>
+      </c>
+      <c r="E12" s="14">
+        <v>43403</v>
+      </c>
+      <c r="F12" s="14">
+        <v>43401</v>
+      </c>
+      <c r="G12" s="12">
+        <v>43415</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="14">
+        <v>43398</v>
+      </c>
+      <c r="E13" s="14">
+        <v>43404</v>
+      </c>
+      <c r="F13" s="14">
+        <v>43388</v>
+      </c>
+      <c r="G13" s="12">
+        <v>43420</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20">
-        <v>43356</v>
-      </c>
-      <c r="E7" s="20">
-        <v>43360</v>
-      </c>
-      <c r="F7" s="20">
-        <v>43356</v>
-      </c>
-      <c r="G7" s="18">
-        <v>43360</v>
-      </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="20">
-        <v>43371</v>
-      </c>
-      <c r="E8" s="20">
-        <v>43378</v>
-      </c>
-      <c r="F8" s="20">
-        <v>43383</v>
-      </c>
-      <c r="G8" s="18">
-        <v>43415</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="20">
-        <v>43365</v>
-      </c>
-      <c r="E9" s="20">
-        <v>43368</v>
-      </c>
-      <c r="F9" s="20">
-        <v>43384</v>
-      </c>
-      <c r="G9" s="18">
-        <v>43388</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="20">
-        <v>43383</v>
-      </c>
-      <c r="E10" s="20">
-        <v>43387</v>
-      </c>
-      <c r="F10" s="20">
-        <v>43389</v>
-      </c>
-      <c r="G10" s="18">
-        <v>43414</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="20">
-        <v>43391</v>
-      </c>
-      <c r="E11" s="20">
-        <v>43393</v>
-      </c>
-      <c r="F11" s="20">
-        <v>43391</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17">
         <v>43405</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="20">
-        <v>43393</v>
-      </c>
-      <c r="E12" s="20">
-        <v>43403</v>
-      </c>
-      <c r="F12" s="20">
-        <v>43401</v>
-      </c>
-      <c r="G12" s="18">
-        <v>43415</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="20">
-        <v>43398</v>
-      </c>
-      <c r="E13" s="20">
-        <v>43404</v>
-      </c>
-      <c r="F13" s="20">
-        <v>43388</v>
-      </c>
-      <c r="G13" s="18">
-        <v>43420</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23">
-        <v>43405</v>
-      </c>
-      <c r="E14" s="23">
+      <c r="E14" s="17">
         <v>43409</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="14"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/KẾ HOẠCH CHI TIẾT.xlsx
+++ b/KẾ HOẠCH CHI TIẾT.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\caro-game-one-player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3E0619-20B0-4FB5-B498-DFB644225210}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4065" xr2:uid="{AFE64996-C6F0-4364-80A5-09C90EDB035F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="4068"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>KẾ HOẠCH &amp; PHÂN CÔNG LÀM ĐỒ ÁN MÔN CẤU TRÚC DỮ LIỆU VÀ GIẢI THUẬT</t>
   </si>
@@ -65,6 +64,9 @@
     <t>Xử lý đổi người</t>
   </si>
   <si>
+    <t>Kiểm tra hàng 5 (dọc, ngang, đường chéo chính, đường chéo phụ).</t>
+  </si>
+  <si>
     <t>Xác định trạng thái thắng, kiểm tra người thắng.</t>
   </si>
   <si>
@@ -92,13 +94,16 @@
     <t>Tìm hiểu ngăn sếp , vận dụng tạo lưu vết</t>
   </si>
   <si>
-    <t xml:space="preserve">Kiểm tra hàng 5 </t>
+    <t>File Word báo cáo đồ án</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slide thuyết trình </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -408,11 +413,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -421,6 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -457,33 +470,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -798,59 +798,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C175DDD1-3669-4EDA-8396-74DDD837FA78}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="73.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" ht="58.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="30" t="s">
         <v>6</v>
       </c>
@@ -859,257 +859,305 @@
         <v>7</v>
       </c>
       <c r="G3" s="32"/>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26"/>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="19">
+        <v>43354</v>
+      </c>
+      <c r="E5" s="19">
+        <v>43355</v>
+      </c>
+      <c r="F5" s="19">
+        <v>43354</v>
+      </c>
+      <c r="G5" s="17">
+        <v>43355</v>
+      </c>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="20">
+        <v>43356</v>
+      </c>
+      <c r="E6" s="20">
+        <v>43360</v>
+      </c>
+      <c r="F6" s="20">
+        <v>43356</v>
+      </c>
+      <c r="G6" s="18">
+        <v>43360</v>
+      </c>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="20">
+        <v>43356</v>
+      </c>
+      <c r="E7" s="20">
+        <v>43360</v>
+      </c>
+      <c r="F7" s="20">
+        <v>43356</v>
+      </c>
+      <c r="G7" s="18">
+        <v>43360</v>
+      </c>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="20">
+        <v>43371</v>
+      </c>
+      <c r="E8" s="20">
+        <v>43378</v>
+      </c>
+      <c r="F8" s="20">
+        <v>43383</v>
+      </c>
+      <c r="G8" s="18">
+        <v>43415</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="20">
+        <v>43365</v>
+      </c>
+      <c r="E9" s="20">
+        <v>43368</v>
+      </c>
+      <c r="F9" s="20">
+        <v>43384</v>
+      </c>
+      <c r="G9" s="18">
+        <v>43388</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="20">
+        <v>43383</v>
+      </c>
+      <c r="E10" s="20">
+        <v>43387</v>
+      </c>
+      <c r="F10" s="20">
+        <v>43389</v>
+      </c>
+      <c r="G10" s="18">
+        <v>43414</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="20">
+        <v>43391</v>
+      </c>
+      <c r="E11" s="20">
+        <v>43393</v>
+      </c>
+      <c r="F11" s="20">
+        <v>43391</v>
+      </c>
+      <c r="G11" s="18">
+        <v>43405</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="20">
+        <v>43393</v>
+      </c>
+      <c r="E12" s="20">
+        <v>43403</v>
+      </c>
+      <c r="F12" s="20">
+        <v>43401</v>
+      </c>
+      <c r="G12" s="18">
+        <v>43415</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="20">
+        <v>43398</v>
+      </c>
+      <c r="E13" s="20">
+        <v>43404</v>
+      </c>
+      <c r="F13" s="20">
+        <v>43388</v>
+      </c>
+      <c r="G13" s="18">
+        <v>43420</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="13">
-        <v>43354</v>
-      </c>
-      <c r="E5" s="13">
-        <v>43355</v>
-      </c>
-      <c r="F5" s="13">
-        <v>43354</v>
-      </c>
-      <c r="G5" s="11">
-        <v>43355</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="14">
-        <v>43356</v>
-      </c>
-      <c r="E6" s="14">
-        <v>43360</v>
-      </c>
-      <c r="F6" s="14">
-        <v>43356</v>
-      </c>
-      <c r="G6" s="12">
-        <v>43360</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="14">
-        <v>43356</v>
-      </c>
-      <c r="E7" s="14">
-        <v>43360</v>
-      </c>
-      <c r="F7" s="14">
-        <v>43356</v>
-      </c>
-      <c r="G7" s="12">
-        <v>43360</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="14">
-        <v>43371</v>
-      </c>
-      <c r="E8" s="14">
-        <v>43378</v>
-      </c>
-      <c r="F8" s="14">
-        <v>43383</v>
-      </c>
-      <c r="G8" s="12">
-        <v>43415</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="14">
-        <v>43365</v>
-      </c>
-      <c r="E9" s="14">
-        <v>43368</v>
-      </c>
-      <c r="F9" s="14">
-        <v>43384</v>
-      </c>
-      <c r="G9" s="12">
-        <v>43388</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="14">
-        <v>43383</v>
-      </c>
-      <c r="E10" s="14">
-        <v>43387</v>
-      </c>
-      <c r="F10" s="14">
-        <v>43389</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23">
+        <v>43405</v>
+      </c>
+      <c r="E14" s="23">
+        <v>43409</v>
+      </c>
+      <c r="F14" s="36">
+        <v>43419</v>
+      </c>
+      <c r="G14" s="18">
+        <v>43439</v>
+      </c>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="35">
+        <v>43409</v>
+      </c>
+      <c r="E15" s="35">
+        <v>43435</v>
+      </c>
+      <c r="F15" s="33">
         <v>43414</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="14">
-        <v>43391</v>
-      </c>
-      <c r="E11" s="14">
-        <v>43393</v>
-      </c>
-      <c r="F11" s="14">
-        <v>43391</v>
-      </c>
-      <c r="G11" s="12">
-        <v>43405</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14">
-        <v>43393</v>
-      </c>
-      <c r="E12" s="14">
-        <v>43403</v>
-      </c>
-      <c r="F12" s="14">
-        <v>43401</v>
-      </c>
-      <c r="G12" s="12">
-        <v>43415</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="14">
-        <v>43398</v>
-      </c>
-      <c r="E13" s="14">
-        <v>43404</v>
-      </c>
-      <c r="F13" s="14">
-        <v>43388</v>
-      </c>
-      <c r="G13" s="12">
-        <v>43420</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17">
-        <v>43405</v>
-      </c>
-      <c r="E14" s="17">
-        <v>43409</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="9"/>
+      <c r="G15" s="34">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="35">
+        <v>43414</v>
+      </c>
+      <c r="E16" s="35">
+        <v>43444</v>
+      </c>
+      <c r="F16" s="37">
+        <v>43419</v>
+      </c>
+      <c r="G16" s="34">
+        <v>43444</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
